--- a/OBIE Transactions.xlsx
+++ b/OBIE Transactions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="339">
   <si>
     <t>Name</t>
   </si>
@@ -143,14 +143,6 @@
   <si>
     <t>Accountbalance
 BalanceType</t>
-  </si>
-  <si>
-    <t>Accountbalance
-AmountValue</t>
-  </si>
-  <si>
-    <t>Accountbalance
-AmountCurrency</t>
   </si>
   <si>
     <t>No</t>
@@ -997,15 +989,6 @@
 ProprietaryBankTransactionCode:
               $ref: '#/components/schemas/ProprietaryBankTransactionCode'
 Issuer</t>
-  </si>
-  <si>
-    <t>GET /CurrentAccountFacility/{currentaccountfacilityid}/Retrieve
-GET /CorporateCurrentAccountFacility/{corporatecurrentaccountfacilityid}/Retrieve
-GET /CreditCardFacility/{creditcardfacilityid}/Retrieve</t>
-  </si>
-  <si>
-    <t>N/A
-Call CurrentAccuont, CorporateCurrentAccount, CreditCard depends on AccountID</t>
   </si>
   <si>
     <t>FinancialTransaction:
@@ -1221,6 +1204,10 @@
   </si>
   <si>
     <t>PostingDescription</t>
+  </si>
+  <si>
+    <t>Accountbalance
+CurrencyAndAmount</t>
   </si>
 </sst>
 </file>
@@ -1609,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1651,20 +1638,20 @@
         <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1681,11 +1668,11 @@
         <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1695,19 +1682,19 @@
     </row>
     <row r="4" spans="1:9" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1723,7 +1710,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1739,19 +1726,19 @@
     </row>
     <row r="6" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1759,24 +1746,24 @@
         <v>36</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1784,32 +1771,32 @@
         <v>36</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
@@ -1820,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>15</v>
@@ -1833,76 +1820,76 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="112.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>21</v>
@@ -1910,24 +1897,24 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="306" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>21</v>
@@ -1938,24 +1925,24 @@
         <v>36</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -1963,24 +1950,24 @@
         <v>36</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1994,10 +1981,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>23</v>
@@ -2017,7 +2004,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
@@ -2030,10 +2017,10 @@
         <v>26</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="122.4" x14ac:dyDescent="0.55000000000000004">
@@ -2044,7 +2031,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>28</v>
@@ -2057,24 +2044,24 @@
         <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>23</v>
@@ -2093,7 +2080,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>24</v>
@@ -2106,10 +2093,10 @@
         <v>26</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="122.4" x14ac:dyDescent="0.55000000000000004">
@@ -2120,7 +2107,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>28</v>
@@ -2133,27 +2120,27 @@
         <v>30</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2163,16 +2150,16 @@
     </row>
     <row r="23" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>29</v>
@@ -2182,24 +2169,24 @@
         <v>30</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>29</v>
@@ -2209,24 +2196,24 @@
         <v>30</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>29</v>
@@ -2236,74 +2223,74 @@
         <v>30</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="173.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>116</v>
-      </c>
       <c r="E27" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>21</v>
@@ -2311,24 +2298,24 @@
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="81.599999999999994" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>23</v>
@@ -2348,7 +2335,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>24</v>
@@ -2361,10 +2348,10 @@
         <v>26</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="122.4" x14ac:dyDescent="0.55000000000000004">
@@ -2375,7 +2362,7 @@
         <v>8</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>28</v>
@@ -2388,27 +2375,27 @@
         <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>128</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2418,69 +2405,69 @@
     </row>
     <row r="33" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
@@ -2491,55 +2478,55 @@
     </row>
     <row r="36" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>145</v>
-      </c>
       <c r="E37" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="105" x14ac:dyDescent="0.55000000000000004">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="102" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -2547,22 +2534,20 @@
         <v>32</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>305</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I38" s="7"/>
     </row>
     <row r="39" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5" t="s">
@@ -2572,7 +2557,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
@@ -2599,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>18</v>
@@ -2626,10 +2611,10 @@
         <v>8</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>23</v>
@@ -2648,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>24</v>
@@ -2664,7 +2649,7 @@
         <v>36</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="122.4" x14ac:dyDescent="0.55000000000000004">
@@ -2675,7 +2660,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>28</v>
@@ -2691,24 +2676,24 @@
         <v>36</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>40</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -2719,69 +2704,69 @@
     </row>
     <row r="45" spans="1:9" ht="63" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
@@ -2791,52 +2776,52 @@
     </row>
     <row r="48" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>174</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="E49" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
       <c r="H49" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
@@ -2847,38 +2832,38 @@
         <v>32</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="E51" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
@@ -2888,273 +2873,273 @@
     </row>
     <row r="52" spans="1:9" ht="102" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="E53" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="E54" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="E55" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5"/>
       <c r="H57" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="E58" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E59" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>215</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="E61" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="4" t="s">
+      <c r="E62" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -3165,52 +3150,52 @@
     </row>
     <row r="63" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E63" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F63" s="5"/>
       <c r="G63" s="5"/>
       <c r="H63" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>226</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="122.4" x14ac:dyDescent="0.55000000000000004">
@@ -3221,63 +3206,63 @@
         <v>32</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="132.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="4" t="s">
+      <c r="E66" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E67" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
@@ -3288,52 +3273,52 @@
     </row>
     <row r="68" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="E68" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
       <c r="H68" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="E69" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
@@ -3344,38 +3329,38 @@
         <v>32</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E71" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -3385,273 +3370,273 @@
     </row>
     <row r="72" spans="1:9" ht="102" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D72" s="4" t="s">
+      <c r="E72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="E73" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="E74" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B75" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="E75" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="E76" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="E77" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="E78" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E79" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="E80" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="E81" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>254</v>
-      </c>
       <c r="E82" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -3662,52 +3647,52 @@
     </row>
     <row r="83" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="E83" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5"/>
       <c r="H83" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="71.400000000000006" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
       <c r="H84" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="122.4" x14ac:dyDescent="0.55000000000000004">
@@ -3718,63 +3703,63 @@
         <v>32</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
       <c r="H85" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="132.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="E86" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="E87" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -3784,56 +3769,56 @@
     </row>
     <row r="88" spans="1:9" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E88" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="F88" s="4" t="s">
         <v>265</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="F89" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
@@ -3844,63 +3829,63 @@
         <v>32</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="102" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A92" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="8"/>
@@ -3908,7 +3893,7 @@
         <v>36</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/OBIE Transactions.xlsx
+++ b/OBIE Transactions.xlsx
@@ -1065,20 +1065,6 @@
               $ref: '#/components/schemas/Accountidentification'
 BranchAddress:
               $ref: '#/components/schemas/Address'
-BuildingNumber</t>
-  </si>
-  <si>
-    <t>FinancialTransactionTargetAccount:
-              $ref: '#/components/schemas/Accountidentification'
-BranchAddress:
-              $ref: '#/components/schemas/Address'
-PostCode</t>
-  </si>
-  <si>
-    <t>FinancialTransactionTargetAccount:
-              $ref: '#/components/schemas/Accountidentification'
-BranchAddress:
-              $ref: '#/components/schemas/Address'
 TownName</t>
   </si>
   <si>
@@ -1140,20 +1126,6 @@
               $ref: '#/components/schemas/Accountidentification'
 BranchAddress:
               $ref: '#/components/schemas/Address'
-BuildingNumber</t>
-  </si>
-  <si>
-    <t>FinancialTransactionFromAccount:
-              $ref: '#/components/schemas/Accountidentification'
-BranchAddress:
-              $ref: '#/components/schemas/Address'
-PostCode</t>
-  </si>
-  <si>
-    <t>FinancialTransactionFromAccount:
-              $ref: '#/components/schemas/Accountidentification'
-BranchAddress:
-              $ref: '#/components/schemas/Address'
 TownName</t>
   </si>
   <si>
@@ -1208,6 +1180,34 @@
   <si>
     <t>Accountbalance
 CurrencyAndAmount</t>
+  </si>
+  <si>
+    <t>FinancialTransactionFromAccount:
+              $ref: '#/components/schemas/Accountidentification'
+BranchAddress:
+              $ref: '#/components/schemas/Address'
+StreetBuildingIdentification</t>
+  </si>
+  <si>
+    <t>FinancialTransactionTargetAccount:
+              $ref: '#/components/schemas/Accountidentification'
+BranchAddress:
+              $ref: '#/components/schemas/Address'
+StreetBuildingIdentification</t>
+  </si>
+  <si>
+    <t>FinancialTransactionTargetAccount:
+              $ref: '#/components/schemas/Accountidentification'
+BranchAddress:
+              $ref: '#/components/schemas/Address'
+PostCodeIdentification</t>
+  </si>
+  <si>
+    <t>FinancialTransactionFromAccount:
+              $ref: '#/components/schemas/Accountidentification'
+BranchAddress:
+              $ref: '#/components/schemas/Address'
+PostCodeIdentification</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -2649,7 +2649,7 @@
         <v>36</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="122.4" x14ac:dyDescent="0.55000000000000004">
@@ -2676,7 +2676,7 @@
         <v>36</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -2995,7 +2995,7 @@
         <v>39</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3020,7 +3020,7 @@
         <v>39</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3045,7 +3045,7 @@
         <v>39</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3070,7 +3070,7 @@
         <v>39</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3097,7 +3097,7 @@
         <v>39</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3122,7 +3122,7 @@
         <v>39</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
@@ -3245,7 +3245,7 @@
         <v>39</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -3392,7 +3392,7 @@
         <v>39</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3417,7 +3417,7 @@
         <v>39</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3442,7 +3442,7 @@
         <v>39</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3467,7 +3467,7 @@
         <v>39</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3492,7 +3492,7 @@
         <v>39</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3517,7 +3517,7 @@
         <v>39</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3542,7 +3542,7 @@
         <v>39</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3567,7 +3567,7 @@
         <v>39</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3594,7 +3594,7 @@
         <v>39</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="84" x14ac:dyDescent="0.55000000000000004">
@@ -3619,7 +3619,7 @@
         <v>39</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
@@ -3742,7 +3742,7 @@
         <v>39</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="40.799999999999997" x14ac:dyDescent="0.55000000000000004">
@@ -3791,7 +3791,7 @@
         <v>39</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="61.2" x14ac:dyDescent="0.55000000000000004">
@@ -3818,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
@@ -3843,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="102" x14ac:dyDescent="0.55000000000000004">
@@ -3868,7 +3868,7 @@
         <v>39</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="61.2" x14ac:dyDescent="0.4">
@@ -3893,7 +3893,7 @@
         <v>36</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
